--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H2">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J2">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>6.92720378959855</v>
+        <v>1.033717666666667</v>
       </c>
       <c r="N2">
-        <v>6.92720378959855</v>
+        <v>3.101153</v>
       </c>
       <c r="O2">
-        <v>0.2963290061741727</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="P2">
-        <v>0.2963290061741727</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="Q2">
-        <v>27.2629828839204</v>
+        <v>4.386708410345556</v>
       </c>
       <c r="R2">
-        <v>27.2629828839204</v>
+        <v>39.48037569311001</v>
       </c>
       <c r="S2">
-        <v>0.07612776195577685</v>
+        <v>0.009824990261906136</v>
       </c>
       <c r="T2">
-        <v>0.07612776195577685</v>
+        <v>0.009824990261906138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H3">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J3">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.0880303158956</v>
+        <v>7.139908666666667</v>
       </c>
       <c r="N3">
-        <v>16.0880303158956</v>
+        <v>21.419726</v>
       </c>
       <c r="O3">
-        <v>0.6882069850417358</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="P3">
-        <v>0.6882069850417358</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="Q3">
-        <v>63.31670158121229</v>
+        <v>30.29908301573556</v>
       </c>
       <c r="R3">
-        <v>63.31670158121229</v>
+        <v>272.6917471416201</v>
       </c>
       <c r="S3">
-        <v>0.1768023259348631</v>
+        <v>0.06786140489124454</v>
       </c>
       <c r="T3">
-        <v>0.1768023259348631</v>
+        <v>0.06786140489124455</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.93564036976316</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H4">
-        <v>3.93564036976316</v>
+        <v>12.73087</v>
       </c>
       <c r="I4">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J4">
-        <v>0.2569028355969695</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.361497990475427</v>
+        <v>17.222987</v>
       </c>
       <c r="N4">
-        <v>0.361497990475427</v>
+        <v>51.668961</v>
       </c>
       <c r="O4">
-        <v>0.01546400878409149</v>
+        <v>0.6629400015943212</v>
       </c>
       <c r="P4">
-        <v>0.01546400878409149</v>
+        <v>0.6629400015943213</v>
       </c>
       <c r="Q4">
-        <v>1.422726084903349</v>
+        <v>73.08786950289667</v>
       </c>
       <c r="R4">
-        <v>1.422726084903349</v>
+        <v>657.7908255260701</v>
       </c>
       <c r="S4">
-        <v>0.003972747706329548</v>
+        <v>0.1636962248130963</v>
       </c>
       <c r="T4">
-        <v>0.003972747706329548</v>
+        <v>0.1636962248130963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.79885071893769</v>
+        <v>4.243623333333334</v>
       </c>
       <c r="H5">
-        <v>5.79885071893769</v>
+        <v>12.73087</v>
       </c>
       <c r="I5">
-        <v>0.3785257424291203</v>
+        <v>0.2469246453968972</v>
       </c>
       <c r="J5">
-        <v>0.3785257424291203</v>
+        <v>0.2469246453968973</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.92720378959855</v>
+        <v>0.5830936666666667</v>
       </c>
       <c r="N5">
-        <v>6.92720378959855</v>
+        <v>1.749281</v>
       </c>
       <c r="O5">
-        <v>0.2963290061741727</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="P5">
-        <v>0.2963290061741727</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="Q5">
-        <v>40.16982067554144</v>
+        <v>2.474429889385556</v>
       </c>
       <c r="R5">
-        <v>40.16982067554144</v>
+        <v>22.26986900447</v>
       </c>
       <c r="S5">
-        <v>0.1121681570653621</v>
+        <v>0.005542025430650287</v>
       </c>
       <c r="T5">
-        <v>0.1121681570653621</v>
+        <v>0.005542025430650288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.79885071893769</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H6">
-        <v>5.79885071893769</v>
+        <v>17.596475</v>
       </c>
       <c r="I6">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J6">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>16.0880303158956</v>
+        <v>1.033717666666667</v>
       </c>
       <c r="N6">
-        <v>16.0880303158956</v>
+        <v>3.101153</v>
       </c>
       <c r="O6">
-        <v>0.6882069850417358</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="P6">
-        <v>0.6882069850417358</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="Q6">
-        <v>93.29208616362256</v>
+        <v>6.063262359519445</v>
       </c>
       <c r="R6">
-        <v>93.29208616362256</v>
+        <v>54.569361235675</v>
       </c>
       <c r="S6">
-        <v>0.2605040599578296</v>
+        <v>0.01357999850119236</v>
       </c>
       <c r="T6">
-        <v>0.2605040599578296</v>
+        <v>0.01357999850119236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.79885071893769</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H7">
-        <v>5.79885071893769</v>
+        <v>17.596475</v>
       </c>
       <c r="I7">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J7">
-        <v>0.3785257424291203</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.361497990475427</v>
+        <v>7.139908666666667</v>
       </c>
       <c r="N7">
-        <v>0.361497990475427</v>
+        <v>21.419726</v>
       </c>
       <c r="O7">
-        <v>0.01546400878409149</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="P7">
-        <v>0.01546400878409149</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="Q7">
-        <v>2.09627288196296</v>
+        <v>41.87907478509445</v>
       </c>
       <c r="R7">
-        <v>2.09627288196296</v>
+        <v>376.91167306585</v>
       </c>
       <c r="S7">
-        <v>0.005853525405928669</v>
+        <v>0.09379732214952019</v>
       </c>
       <c r="T7">
-        <v>0.005853525405928669</v>
+        <v>0.09379732214952023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.28580010876254</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H8">
-        <v>5.28580010876254</v>
+        <v>17.596475</v>
       </c>
       <c r="I8">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J8">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.92720378959855</v>
+        <v>17.222987</v>
       </c>
       <c r="N8">
-        <v>6.92720378959855</v>
+        <v>51.668961</v>
       </c>
       <c r="O8">
-        <v>0.2963290061741727</v>
+        <v>0.6629400015943212</v>
       </c>
       <c r="P8">
-        <v>0.2963290061741727</v>
+        <v>0.6629400015943213</v>
       </c>
       <c r="Q8">
-        <v>36.61581454448029</v>
+        <v>101.0212867236083</v>
       </c>
       <c r="R8">
-        <v>36.61581454448029</v>
+        <v>909.1915805124752</v>
       </c>
       <c r="S8">
-        <v>0.1022441317345034</v>
+        <v>0.2262592051853509</v>
       </c>
       <c r="T8">
-        <v>0.1022441317345034</v>
+        <v>0.226259205185351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.28580010876254</v>
+        <v>5.865491666666667</v>
       </c>
       <c r="H9">
-        <v>5.28580010876254</v>
+        <v>17.596475</v>
       </c>
       <c r="I9">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647515</v>
       </c>
       <c r="J9">
-        <v>0.3450358540817551</v>
+        <v>0.3412966552647516</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.0880303158956</v>
+        <v>0.5830936666666667</v>
       </c>
       <c r="N9">
-        <v>16.0880303158956</v>
+        <v>1.749281</v>
       </c>
       <c r="O9">
-        <v>0.6882069850417358</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="P9">
-        <v>0.6882069850417358</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="Q9">
-        <v>85.03811239353601</v>
+        <v>3.420131042719445</v>
       </c>
       <c r="R9">
-        <v>85.03811239353601</v>
+        <v>30.781179384475</v>
       </c>
       <c r="S9">
-        <v>0.237456084868905</v>
+        <v>0.007660129428688063</v>
       </c>
       <c r="T9">
-        <v>0.237456084868905</v>
+        <v>0.007660129428688065</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.28580010876254</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H10">
-        <v>5.28580010876254</v>
+        <v>18.369336</v>
       </c>
       <c r="I10">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J10">
-        <v>0.3450358540817551</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.361497990475427</v>
+        <v>1.033717666666667</v>
       </c>
       <c r="N10">
-        <v>0.361497990475427</v>
+        <v>3.101153</v>
       </c>
       <c r="O10">
-        <v>0.01546400878409149</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="P10">
-        <v>0.01546400878409149</v>
+        <v>0.03978942744299105</v>
       </c>
       <c r="Q10">
-        <v>1.910806117372452</v>
+        <v>6.329569049378666</v>
       </c>
       <c r="R10">
-        <v>1.910806117372452</v>
+        <v>56.96612144440799</v>
       </c>
       <c r="S10">
-        <v>0.005335637478346771</v>
+        <v>0.01417645041679648</v>
       </c>
       <c r="T10">
-        <v>0.005335637478346771</v>
+        <v>0.01417645041679648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.299276453932303</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H11">
-        <v>0.299276453932303</v>
+        <v>18.369336</v>
       </c>
       <c r="I11">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J11">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.92720378959855</v>
+        <v>7.139908666666667</v>
       </c>
       <c r="N11">
-        <v>6.92720378959855</v>
+        <v>21.419726</v>
       </c>
       <c r="O11">
-        <v>0.2963290061741727</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="P11">
-        <v>0.2963290061741727</v>
+        <v>0.2748263737796068</v>
       </c>
       <c r="Q11">
-        <v>2.073148985817465</v>
+        <v>43.71846043577066</v>
       </c>
       <c r="R11">
-        <v>2.073148985817465</v>
+        <v>393.466143921936</v>
       </c>
       <c r="S11">
-        <v>0.005788955418530387</v>
+        <v>0.09791702749924508</v>
       </c>
       <c r="T11">
-        <v>0.005788955418530387</v>
+        <v>0.09791702749924509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.299276453932303</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H12">
-        <v>0.299276453932303</v>
+        <v>18.369336</v>
       </c>
       <c r="I12">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J12">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.0880303158956</v>
+        <v>17.222987</v>
       </c>
       <c r="N12">
-        <v>16.0880303158956</v>
+        <v>51.668961</v>
       </c>
       <c r="O12">
-        <v>0.6882069850417358</v>
+        <v>0.6629400015943212</v>
       </c>
       <c r="P12">
-        <v>0.6882069850417358</v>
+        <v>0.6629400015943213</v>
       </c>
       <c r="Q12">
-        <v>4.814768663696624</v>
+        <v>105.458278375544</v>
       </c>
       <c r="R12">
-        <v>4.814768663696624</v>
+        <v>949.1245053798959</v>
       </c>
       <c r="S12">
-        <v>0.01344451428013817</v>
+        <v>0.2361968157339837</v>
       </c>
       <c r="T12">
-        <v>0.01344451428013817</v>
+        <v>0.2361968157339838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.299276453932303</v>
+        <v>6.123111999999999</v>
       </c>
       <c r="H13">
-        <v>0.299276453932303</v>
+        <v>18.369336</v>
       </c>
       <c r="I13">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="J13">
-        <v>0.01953556789215506</v>
+        <v>0.3562868663317164</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.361497990475427</v>
+        <v>0.5830936666666667</v>
       </c>
       <c r="N13">
-        <v>0.361497990475427</v>
+        <v>1.749281</v>
       </c>
       <c r="O13">
-        <v>0.01546400878409149</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="P13">
-        <v>0.01546400878409149</v>
+        <v>0.02244419718308088</v>
       </c>
       <c r="Q13">
-        <v>0.1081878366931392</v>
+        <v>3.570347827490667</v>
       </c>
       <c r="R13">
-        <v>0.1081878366931392</v>
+        <v>32.13313044741599</v>
       </c>
       <c r="S13">
-        <v>0.0003020981934865016</v>
+        <v>0.007996572681691023</v>
       </c>
       <c r="T13">
-        <v>0.0003020981934865016</v>
+        <v>0.007996572681691025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H14">
+        <v>2.861032</v>
+      </c>
+      <c r="I14">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J14">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.033717666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.101153</v>
+      </c>
+      <c r="O14">
+        <v>0.03978942744299105</v>
+      </c>
+      <c r="P14">
+        <v>0.03978942744299105</v>
+      </c>
+      <c r="Q14">
+        <v>0.9858331077662223</v>
+      </c>
+      <c r="R14">
+        <v>8.872497969896001</v>
+      </c>
+      <c r="S14">
+        <v>0.002207988263096068</v>
+      </c>
+      <c r="T14">
+        <v>0.002207988263096068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H15">
+        <v>2.861032</v>
+      </c>
+      <c r="I15">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J15">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>7.139908666666667</v>
+      </c>
+      <c r="N15">
+        <v>21.419726</v>
+      </c>
+      <c r="O15">
+        <v>0.2748263737796068</v>
+      </c>
+      <c r="P15">
+        <v>0.2748263737796068</v>
+      </c>
+      <c r="Q15">
+        <v>6.809169057470223</v>
+      </c>
+      <c r="R15">
+        <v>61.28252151723201</v>
+      </c>
+      <c r="S15">
+        <v>0.01525061923959691</v>
+      </c>
+      <c r="T15">
+        <v>0.01525061923959692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H16">
+        <v>2.861032</v>
+      </c>
+      <c r="I16">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J16">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.222987</v>
+      </c>
+      <c r="N16">
+        <v>51.668961</v>
+      </c>
+      <c r="O16">
+        <v>0.6629400015943212</v>
+      </c>
+      <c r="P16">
+        <v>0.6629400015943213</v>
+      </c>
+      <c r="Q16">
+        <v>16.42517231419467</v>
+      </c>
+      <c r="R16">
+        <v>147.826550827752</v>
+      </c>
+      <c r="S16">
+        <v>0.03678775586189022</v>
+      </c>
+      <c r="T16">
+        <v>0.03678775586189024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9536773333333334</v>
+      </c>
+      <c r="H17">
+        <v>2.861032</v>
+      </c>
+      <c r="I17">
+        <v>0.05549183300663471</v>
+      </c>
+      <c r="J17">
+        <v>0.05549183300663472</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.5830936666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.749281</v>
+      </c>
+      <c r="O17">
+        <v>0.02244419718308088</v>
+      </c>
+      <c r="P17">
+        <v>0.02244419718308088</v>
+      </c>
+      <c r="Q17">
+        <v>0.5560832131102224</v>
+      </c>
+      <c r="R17">
+        <v>5.004748917992001</v>
+      </c>
+      <c r="S17">
+        <v>0.001245469642051506</v>
+      </c>
+      <c r="T17">
+        <v>0.001245469642051506</v>
       </c>
     </row>
   </sheetData>
